--- a/Data_clean/MCAS/Estados_US/Edos_USA_2015/NORTH_CAROLINA_2015.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2015/NORTH_CAROLINA_2015.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1852"/>
+  <dimension ref="A1:D1846"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -452,7 +452,7 @@
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C7">
@@ -465,7 +465,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C8">
@@ -478,7 +478,7 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>San Francisco de los Romo</t>
+          <t>San Francisco De Los Romo</t>
         </is>
       </c>
       <c r="C9">
@@ -836,7 +836,7 @@
     <row r="35">
       <c r="B35" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C35">
@@ -875,7 +875,7 @@
     <row r="38">
       <c r="B38" t="inlineStr">
         <is>
-          <t>Bejucal de Ocampo</t>
+          <t>Bejucal De Ocampo</t>
         </is>
       </c>
       <c r="C38">
@@ -901,7 +901,7 @@
     <row r="40">
       <c r="B40" t="inlineStr">
         <is>
-          <t>Benemérito de las Américas</t>
+          <t>Benemérito De Las Américas</t>
         </is>
       </c>
       <c r="C40">
@@ -1005,7 +1005,7 @@
     <row r="48">
       <c r="B48" t="inlineStr">
         <is>
-          <t>Chiapa de Corzo</t>
+          <t>Chiapa De Corzo</t>
         </is>
       </c>
       <c r="C48">
@@ -1057,7 +1057,7 @@
     <row r="52">
       <c r="B52" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C52">
@@ -1395,7 +1395,7 @@
     <row r="78">
       <c r="B78" t="inlineStr">
         <is>
-          <t>Marqués de Comillas</t>
+          <t>Marqués De Comillas</t>
         </is>
       </c>
       <c r="C78">
@@ -1408,7 +1408,7 @@
     <row r="79">
       <c r="B79" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C79">
@@ -1486,7 +1486,7 @@
     <row r="85">
       <c r="B85" t="inlineStr">
         <is>
-          <t>Ocozocoautla de Espinosa</t>
+          <t>Ocozocoautla De Espinosa</t>
         </is>
       </c>
       <c r="C85">
@@ -1603,7 +1603,7 @@
     <row r="94">
       <c r="B94" t="inlineStr">
         <is>
-          <t>Salto de Agua</t>
+          <t>Salto De Agua</t>
         </is>
       </c>
       <c r="C94">
@@ -1616,7 +1616,7 @@
     <row r="95">
       <c r="B95" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C95">
@@ -2050,7 +2050,7 @@
     <row r="128">
       <c r="B128" t="inlineStr">
         <is>
-          <t>Coyame del Sotol</t>
+          <t>Coyame Del Sotol</t>
         </is>
       </c>
       <c r="C128">
@@ -2141,7 +2141,7 @@
     <row r="135">
       <c r="B135" t="inlineStr">
         <is>
-          <t>Guadalupe y Calvo</t>
+          <t>Guadalupe Y Calvo</t>
         </is>
       </c>
       <c r="C135">
@@ -2180,7 +2180,7 @@
     <row r="138">
       <c r="B138" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C138">
@@ -2336,7 +2336,7 @@
     <row r="150">
       <c r="B150" t="inlineStr">
         <is>
-          <t>San Francisco del Oro</t>
+          <t>San Francisco Del Oro</t>
         </is>
       </c>
       <c r="C150">
@@ -2653,7 +2653,7 @@
     <row r="174">
       <c r="B174" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C174">
@@ -2840,7 +2840,7 @@
     <row r="188">
       <c r="B188" t="inlineStr">
         <is>
-          <t>Villa de Álvarez</t>
+          <t>Villa De Álvarez</t>
         </is>
       </c>
       <c r="C188">
@@ -2866,7 +2866,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -2923,7 +2923,7 @@
     <row r="194">
       <c r="B194" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C194">
@@ -3279,7 +3279,7 @@
     <row r="221">
       <c r="B221" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C221">
@@ -3331,7 +3331,7 @@
     <row r="225">
       <c r="B225" t="inlineStr">
         <is>
-          <t>Pánuco de Coronado</t>
+          <t>Pánuco De Coronado</t>
         </is>
       </c>
       <c r="C225">
@@ -3396,7 +3396,7 @@
     <row r="230">
       <c r="B230" t="inlineStr">
         <is>
-          <t>San Juan de Guadalupe</t>
+          <t>San Juan De Guadalupe</t>
         </is>
       </c>
       <c r="C230">
@@ -3409,7 +3409,7 @@
     <row r="231">
       <c r="B231" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C231">
@@ -3422,7 +3422,7 @@
     <row r="232">
       <c r="B232" t="inlineStr">
         <is>
-          <t>San Luis del Cordero</t>
+          <t>San Luis Del Cordero</t>
         </is>
       </c>
       <c r="C232">
@@ -3552,12 +3552,12 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C242">
@@ -3596,7 +3596,7 @@
     <row r="245">
       <c r="B245" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C245">
@@ -3609,7 +3609,7 @@
     <row r="246">
       <c r="B246" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C246">
@@ -3674,7 +3674,7 @@
     <row r="251">
       <c r="B251" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C251">
@@ -3739,7 +3739,7 @@
     <row r="256">
       <c r="B256" t="inlineStr">
         <is>
-          <t>Chapa de Mota</t>
+          <t>Chapa De Mota</t>
         </is>
       </c>
       <c r="C256">
@@ -3804,7 +3804,7 @@
     <row r="261">
       <c r="B261" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C261">
@@ -3882,7 +3882,7 @@
     <row r="267">
       <c r="B267" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C267">
@@ -3973,7 +3973,7 @@
     <row r="274">
       <c r="B274" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C274">
@@ -3986,7 +3986,7 @@
     <row r="275">
       <c r="B275" t="inlineStr">
         <is>
-          <t>Ixtapan del Oro</t>
+          <t>Ixtapan Del Oro</t>
         </is>
       </c>
       <c r="C275">
@@ -4168,7 +4168,7 @@
     <row r="289">
       <c r="B289" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C289">
@@ -4311,7 +4311,7 @@
     <row r="300">
       <c r="B300" t="inlineStr">
         <is>
-          <t>San Antonio la Isla</t>
+          <t>San Antonio La Isla</t>
         </is>
       </c>
       <c r="C300">
@@ -4324,7 +4324,7 @@
     <row r="301">
       <c r="B301" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C301">
@@ -4337,7 +4337,7 @@
     <row r="302">
       <c r="B302" t="inlineStr">
         <is>
-          <t>San Martín de las Pirámides</t>
+          <t>San Martín De Las Pirámides</t>
         </is>
       </c>
       <c r="C302">
@@ -4363,7 +4363,7 @@
     <row r="304">
       <c r="B304" t="inlineStr">
         <is>
-          <t>San Simón de Guerrero</t>
+          <t>San Simón De Guerrero</t>
         </is>
       </c>
       <c r="C304">
@@ -4389,7 +4389,7 @@
     <row r="306">
       <c r="B306" t="inlineStr">
         <is>
-          <t>Soyaniquilpan de Juárez</t>
+          <t>Soyaniquilpan De Juárez</t>
         </is>
       </c>
       <c r="C306">
@@ -4519,7 +4519,7 @@
     <row r="316">
       <c r="B316" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C316">
@@ -4662,7 +4662,7 @@
     <row r="327">
       <c r="B327" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C327">
@@ -4740,7 +4740,7 @@
     <row r="333">
       <c r="B333" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C333">
@@ -4753,7 +4753,7 @@
     <row r="334">
       <c r="B334" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C334">
@@ -4766,7 +4766,7 @@
     <row r="335">
       <c r="B335" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C335">
@@ -4779,7 +4779,7 @@
     <row r="336">
       <c r="B336" t="inlineStr">
         <is>
-          <t>Villa del Carbón</t>
+          <t>Villa Del Carbón</t>
         </is>
       </c>
       <c r="C336">
@@ -4953,7 +4953,7 @@
     <row r="349">
       <c r="B349" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C349">
@@ -4966,7 +4966,7 @@
     <row r="350">
       <c r="B350" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C350">
@@ -4979,7 +4979,7 @@
     <row r="351">
       <c r="B351" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C351">
@@ -5012,7 +5012,7 @@
         <v>389</v>
       </c>
       <c r="D353">
-        <v>0.009593094944512947</v>
+        <v>0.009593094944512949</v>
       </c>
     </row>
     <row r="354">
@@ -5083,7 +5083,7 @@
     <row r="359">
       <c r="B359" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C359">
@@ -5135,7 +5135,7 @@
     <row r="363">
       <c r="B363" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C363">
@@ -5239,7 +5239,7 @@
     <row r="371">
       <c r="B371" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C371">
@@ -5291,7 +5291,7 @@
     <row r="375">
       <c r="B375" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C375">
@@ -5317,7 +5317,7 @@
     <row r="377">
       <c r="B377" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C377">
@@ -5343,7 +5343,7 @@
     <row r="379">
       <c r="B379" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C379">
@@ -5369,7 +5369,7 @@
     <row r="381">
       <c r="B381" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C381">
@@ -5395,7 +5395,7 @@
     <row r="383">
       <c r="B383" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C383">
@@ -5460,7 +5460,7 @@
     <row r="388">
       <c r="B388" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C388">
@@ -5543,7 +5543,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C394">
@@ -5582,7 +5582,7 @@
     <row r="397">
       <c r="B397" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C397">
@@ -5595,7 +5595,7 @@
     <row r="398">
       <c r="B398" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C398">
@@ -5647,7 +5647,7 @@
     <row r="402">
       <c r="B402" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C402">
@@ -5660,7 +5660,7 @@
     <row r="403">
       <c r="B403" t="inlineStr">
         <is>
-          <t>Atlamajalcingo del Monte</t>
+          <t>Atlamajalcingo Del Monte</t>
         </is>
       </c>
       <c r="C403">
@@ -5686,7 +5686,7 @@
     <row r="405">
       <c r="B405" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C405">
@@ -5699,7 +5699,7 @@
     <row r="406">
       <c r="B406" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C406">
@@ -5738,7 +5738,7 @@
     <row r="409">
       <c r="B409" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C409">
@@ -5751,7 +5751,7 @@
     <row r="410">
       <c r="B410" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C410">
@@ -5764,7 +5764,7 @@
     <row r="411">
       <c r="B411" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C411">
@@ -5777,7 +5777,7 @@
     <row r="412">
       <c r="B412" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C412">
@@ -5842,7 +5842,7 @@
     <row r="417">
       <c r="B417" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C417">
@@ -5855,7 +5855,7 @@
     <row r="418">
       <c r="B418" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C418">
@@ -5907,7 +5907,7 @@
     <row r="422">
       <c r="B422" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C422">
@@ -5920,7 +5920,7 @@
     <row r="423">
       <c r="B423" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C423">
@@ -5998,7 +5998,7 @@
     <row r="429">
       <c r="B429" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C429">
@@ -6011,7 +6011,7 @@
     <row r="430">
       <c r="B430" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C430">
@@ -6037,7 +6037,7 @@
     <row r="432">
       <c r="B432" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C432">
@@ -6076,7 +6076,7 @@
     <row r="435">
       <c r="B435" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C435">
@@ -6115,7 +6115,7 @@
     <row r="438">
       <c r="B438" t="inlineStr">
         <is>
-          <t>Mártir de Cuilapan</t>
+          <t>Mártir De Cuilapan</t>
         </is>
       </c>
       <c r="C438">
@@ -6284,7 +6284,7 @@
     <row r="451">
       <c r="B451" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C451">
@@ -6310,7 +6310,7 @@
     <row r="453">
       <c r="B453" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C453">
@@ -6336,7 +6336,7 @@
     <row r="455">
       <c r="B455" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C455">
@@ -6362,7 +6362,7 @@
     <row r="457">
       <c r="B457" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C457">
@@ -6401,7 +6401,7 @@
     <row r="460">
       <c r="B460" t="inlineStr">
         <is>
-          <t>Tlalixtaquilla de Maldonado</t>
+          <t>Tlalixtaquilla De Maldonado</t>
         </is>
       </c>
       <c r="C460">
@@ -6414,7 +6414,7 @@
     <row r="461">
       <c r="B461" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C461">
@@ -6575,7 +6575,7 @@
     <row r="473">
       <c r="B473" t="inlineStr">
         <is>
-          <t>Agua Blanca de Iturbide</t>
+          <t>Agua Blanca De Iturbide</t>
         </is>
       </c>
       <c r="C473">
@@ -6653,7 +6653,7 @@
     <row r="479">
       <c r="B479" t="inlineStr">
         <is>
-          <t>Atotonilco de Tula</t>
+          <t>Atotonilco De Tula</t>
         </is>
       </c>
       <c r="C479">
@@ -6666,7 +6666,7 @@
     <row r="480">
       <c r="B480" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C480">
@@ -6744,7 +6744,7 @@
     <row r="486">
       <c r="B486" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C486">
@@ -6796,7 +6796,7 @@
     <row r="490">
       <c r="B490" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C490">
@@ -6848,7 +6848,7 @@
     <row r="494">
       <c r="B494" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C494">
@@ -6887,7 +6887,7 @@
     <row r="497">
       <c r="B497" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C497">
@@ -6965,7 +6965,7 @@
     <row r="503">
       <c r="B503" t="inlineStr">
         <is>
-          <t>Mineral de la Reforma</t>
+          <t>Mineral De La Reforma</t>
         </is>
       </c>
       <c r="C503">
@@ -6978,7 +6978,7 @@
     <row r="504">
       <c r="B504" t="inlineStr">
         <is>
-          <t>Mineral del Chico</t>
+          <t>Mineral Del Chico</t>
         </is>
       </c>
       <c r="C504">
@@ -6991,7 +6991,7 @@
     <row r="505">
       <c r="B505" t="inlineStr">
         <is>
-          <t>Mineral del Monte</t>
+          <t>Mineral Del Monte</t>
         </is>
       </c>
       <c r="C505">
@@ -7004,7 +7004,7 @@
     <row r="506">
       <c r="B506" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C506">
@@ -7017,7 +7017,7 @@
     <row r="507">
       <c r="B507" t="inlineStr">
         <is>
-          <t>Molango de Escamilla</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C507">
@@ -7043,7 +7043,7 @@
     <row r="509">
       <c r="B509" t="inlineStr">
         <is>
-          <t>Nopala de Villagrán</t>
+          <t>Nopala De Villagrán</t>
         </is>
       </c>
       <c r="C509">
@@ -7056,7 +7056,7 @@
     <row r="510">
       <c r="B510" t="inlineStr">
         <is>
-          <t>Omitlán de Juárez</t>
+          <t>Omitlán De Juárez</t>
         </is>
       </c>
       <c r="C510">
@@ -7069,7 +7069,7 @@
     <row r="511">
       <c r="B511" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C511">
@@ -7108,7 +7108,7 @@
     <row r="514">
       <c r="B514" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C514">
@@ -7186,7 +7186,7 @@
     <row r="520">
       <c r="B520" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C520">
@@ -7199,7 +7199,7 @@
     <row r="521">
       <c r="B521" t="inlineStr">
         <is>
-          <t>Santiago Tulantepec de Lugo Guerrero</t>
+          <t>Santiago Tulantepec De Lugo Guerrero</t>
         </is>
       </c>
       <c r="C521">
@@ -7251,7 +7251,7 @@
     <row r="525">
       <c r="B525" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C525">
@@ -7277,20 +7277,20 @@
     <row r="527">
       <c r="B527" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C527">
         <v>39</v>
       </c>
       <c r="D527">
-        <v>0.0009617755856966707</v>
+        <v>0.0009617755856966709</v>
       </c>
     </row>
     <row r="528">
       <c r="B528" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C528">
@@ -7329,7 +7329,7 @@
     <row r="531">
       <c r="B531" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C531">
@@ -7388,7 +7388,7 @@
         <v>39</v>
       </c>
       <c r="D535">
-        <v>0.0009617755856966707</v>
+        <v>0.0009617755856966709</v>
       </c>
     </row>
     <row r="536">
@@ -7433,7 +7433,7 @@
     <row r="539">
       <c r="B539" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C539">
@@ -7446,7 +7446,7 @@
     <row r="540">
       <c r="B540" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C540">
@@ -7459,7 +7459,7 @@
     <row r="541">
       <c r="B541" t="inlineStr">
         <is>
-          <t>Villa de Tezontepec</t>
+          <t>Villa De Tezontepec</t>
         </is>
       </c>
       <c r="C541">
@@ -7498,7 +7498,7 @@
     <row r="544">
       <c r="B544" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C544">
@@ -7511,7 +7511,7 @@
     <row r="545">
       <c r="B545" t="inlineStr">
         <is>
-          <t>Zapotlán de Juárez</t>
+          <t>Zapotlán De Juárez</t>
         </is>
       </c>
       <c r="C545">
@@ -7581,7 +7581,7 @@
     <row r="550">
       <c r="B550" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C550">
@@ -7672,7 +7672,7 @@
     <row r="557">
       <c r="B557" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C557">
@@ -7698,7 +7698,7 @@
     <row r="559">
       <c r="B559" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C559">
@@ -7776,7 +7776,7 @@
     <row r="565">
       <c r="B565" t="inlineStr">
         <is>
-          <t>Cañadas de Obregón</t>
+          <t>Cañadas De Obregón</t>
         </is>
       </c>
       <c r="C565">
@@ -7867,7 +7867,7 @@
     <row r="572">
       <c r="B572" t="inlineStr">
         <is>
-          <t>Concepción de Buenos Aires</t>
+          <t>Concepción De Buenos Aires</t>
         </is>
       </c>
       <c r="C572">
@@ -7958,7 +7958,7 @@
     <row r="579">
       <c r="B579" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C579">
@@ -8049,7 +8049,7 @@
     <row r="586">
       <c r="B586" t="inlineStr">
         <is>
-          <t>Huejuquilla el Alto</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C586">
@@ -8062,7 +8062,7 @@
     <row r="587">
       <c r="B587" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C587">
@@ -8114,7 +8114,7 @@
     <row r="591">
       <c r="B591" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C591">
@@ -8179,7 +8179,7 @@
     <row r="596">
       <c r="B596" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C596">
@@ -8296,7 +8296,7 @@
     <row r="605">
       <c r="B605" t="inlineStr">
         <is>
-          <t>San Diego de Alejandría</t>
+          <t>San Diego De Alejandría</t>
         </is>
       </c>
       <c r="C605">
@@ -8322,7 +8322,7 @@
     <row r="607">
       <c r="B607" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C607">
@@ -8348,7 +8348,7 @@
     <row r="609">
       <c r="B609" t="inlineStr">
         <is>
-          <t>San Martín de Bolaños</t>
+          <t>San Martín De Bolaños</t>
         </is>
       </c>
       <c r="C609">
@@ -8361,7 +8361,7 @@
     <row r="610">
       <c r="B610" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C610">
@@ -8374,7 +8374,7 @@
     <row r="611">
       <c r="B611" t="inlineStr">
         <is>
-          <t>San Sebastián del Oeste</t>
+          <t>San Sebastián Del Oeste</t>
         </is>
       </c>
       <c r="C611">
@@ -8387,7 +8387,7 @@
     <row r="612">
       <c r="B612" t="inlineStr">
         <is>
-          <t>Santa María de los Ángeles</t>
+          <t>Santa María De Los Ángeles</t>
         </is>
       </c>
       <c r="C612">
@@ -8413,7 +8413,7 @@
     <row r="614">
       <c r="B614" t="inlineStr">
         <is>
-          <t>Talpa de Allende</t>
+          <t>Talpa De Allende</t>
         </is>
       </c>
       <c r="C614">
@@ -8426,7 +8426,7 @@
     <row r="615">
       <c r="B615" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C615">
@@ -8452,7 +8452,7 @@
     <row r="617">
       <c r="B617" t="inlineStr">
         <is>
-          <t>Techaluta de Montenegro</t>
+          <t>Techaluta De Montenegro</t>
         </is>
       </c>
       <c r="C617">
@@ -8491,7 +8491,7 @@
     <row r="620">
       <c r="B620" t="inlineStr">
         <is>
-          <t>Teocuitatlán de Corona</t>
+          <t>Teocuitatlán De Corona</t>
         </is>
       </c>
       <c r="C620">
@@ -8504,7 +8504,7 @@
     <row r="621">
       <c r="B621" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C621">
@@ -8530,7 +8530,7 @@
     <row r="623">
       <c r="B623" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C623">
@@ -8543,7 +8543,7 @@
     <row r="624">
       <c r="B624" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C624">
@@ -8647,7 +8647,7 @@
     <row r="632">
       <c r="B632" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C632">
@@ -8660,7 +8660,7 @@
     <row r="633">
       <c r="B633" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C633">
@@ -8673,7 +8673,7 @@
     <row r="634">
       <c r="B634" t="inlineStr">
         <is>
-          <t>Valle de Guadalupe</t>
+          <t>Valle De Guadalupe</t>
         </is>
       </c>
       <c r="C634">
@@ -8686,7 +8686,7 @@
     <row r="635">
       <c r="B635" t="inlineStr">
         <is>
-          <t>Valle de Juárez</t>
+          <t>Valle De Juárez</t>
         </is>
       </c>
       <c r="C635">
@@ -8751,7 +8751,7 @@
     <row r="640">
       <c r="B640" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C640">
@@ -8764,7 +8764,7 @@
     <row r="641">
       <c r="B641" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C641">
@@ -8803,7 +8803,7 @@
     <row r="644">
       <c r="B644" t="inlineStr">
         <is>
-          <t>Zapotitlán de Vadillo</t>
+          <t>Zapotitlán De Vadillo</t>
         </is>
       </c>
       <c r="C644">
@@ -8816,7 +8816,7 @@
     <row r="645">
       <c r="B645" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C645">
@@ -9159,7 +9159,7 @@
     <row r="671">
       <c r="B671" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C671">
@@ -9185,7 +9185,7 @@
     <row r="673">
       <c r="B673" t="inlineStr">
         <is>
-          <t>Cojumatlán de Régules</t>
+          <t>Cojumatlán De Régules</t>
         </is>
       </c>
       <c r="C673">
@@ -10017,7 +10017,7 @@
     <row r="737">
       <c r="B737" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C737">
@@ -10334,7 +10334,7 @@
     <row r="761">
       <c r="B761" t="inlineStr">
         <is>
-          <t>Coatlán del Río</t>
+          <t>Coatlán Del Río</t>
         </is>
       </c>
       <c r="C761">
@@ -10490,7 +10490,7 @@
     <row r="773">
       <c r="B773" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C773">
@@ -10568,7 +10568,7 @@
     <row r="779">
       <c r="B779" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C779">
@@ -10581,7 +10581,7 @@
     <row r="780">
       <c r="B780" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C780">
@@ -10659,7 +10659,7 @@
     <row r="786">
       <c r="B786" t="inlineStr">
         <is>
-          <t>Zacualpan de Amilpas</t>
+          <t>Zacualpan De Amilpas</t>
         </is>
       </c>
       <c r="C786">
@@ -10716,7 +10716,7 @@
     <row r="790">
       <c r="B790" t="inlineStr">
         <is>
-          <t>Amatlán de Cañas</t>
+          <t>Amatlán De Cañas</t>
         </is>
       </c>
       <c r="C790">
@@ -10768,7 +10768,7 @@
     <row r="794">
       <c r="B794" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C794">
@@ -10859,7 +10859,7 @@
     <row r="801">
       <c r="B801" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C801">
@@ -11137,7 +11137,7 @@
     <row r="822">
       <c r="B822" t="inlineStr">
         <is>
-          <t>Mier y Noriega</t>
+          <t>Mier Y Noriega</t>
         </is>
       </c>
       <c r="C822">
@@ -11189,7 +11189,7 @@
     <row r="826">
       <c r="B826" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C826">
@@ -11259,7 +11259,7 @@
     <row r="831">
       <c r="B831" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C831">
@@ -11324,7 +11324,7 @@
     <row r="836">
       <c r="B836" t="inlineStr">
         <is>
-          <t>Ayoquezco de Aldama</t>
+          <t>Ayoquezco De Aldama</t>
         </is>
       </c>
       <c r="C836">
@@ -11376,7 +11376,7 @@
     <row r="840">
       <c r="B840" t="inlineStr">
         <is>
-          <t>Capulálpam de Méndez</t>
+          <t>Capulálpam De Méndez</t>
         </is>
       </c>
       <c r="C840">
@@ -11389,7 +11389,7 @@
     <row r="841">
       <c r="B841" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C841">
@@ -11402,7 +11402,7 @@
     <row r="842">
       <c r="B842" t="inlineStr">
         <is>
-          <t>Ciénega de Zimatlán</t>
+          <t>Ciénega De Zimatlán</t>
         </is>
       </c>
       <c r="C842">
@@ -11441,7 +11441,7 @@
     <row r="845">
       <c r="B845" t="inlineStr">
         <is>
-          <t>Coicoyán de las Flores</t>
+          <t>Coicoyán De Las Flores</t>
         </is>
       </c>
       <c r="C845">
@@ -11454,7 +11454,7 @@
     <row r="846">
       <c r="B846" t="inlineStr">
         <is>
-          <t>Constancia del Rosario</t>
+          <t>Constancia Del Rosario</t>
         </is>
       </c>
       <c r="C846">
@@ -11480,7 +11480,7 @@
     <row r="848">
       <c r="B848" t="inlineStr">
         <is>
-          <t>Cuilápam de Guerrero</t>
+          <t>Cuilápam De Guerrero</t>
         </is>
       </c>
       <c r="C848">
@@ -11493,7 +11493,7 @@
     <row r="849">
       <c r="B849" t="inlineStr">
         <is>
-          <t>Fresnillo de Trujano</t>
+          <t>Fresnillo De Trujano</t>
         </is>
       </c>
       <c r="C849">
@@ -11506,7 +11506,7 @@
     <row r="850">
       <c r="B850" t="inlineStr">
         <is>
-          <t>Guadalupe de Ramírez</t>
+          <t>Guadalupe De Ramírez</t>
         </is>
       </c>
       <c r="C850">
@@ -11532,7 +11532,7 @@
     <row r="852">
       <c r="B852" t="inlineStr">
         <is>
-          <t>Guevea de Humboldt</t>
+          <t>Guevea De Humboldt</t>
         </is>
       </c>
       <c r="C852">
@@ -11545,7 +11545,7 @@
     <row r="853">
       <c r="B853" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C853">
@@ -11558,7 +11558,7 @@
     <row r="854">
       <c r="B854" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C854">
@@ -11571,20 +11571,20 @@
     <row r="855">
       <c r="B855" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C855">
         <v>39</v>
       </c>
       <c r="D855">
-        <v>0.0009617755856966707</v>
+        <v>0.0009617755856966709</v>
       </c>
     </row>
     <row r="856">
       <c r="B856" t="inlineStr">
         <is>
-          <t>Huautla de Jiménez</t>
+          <t>Huautla De Jiménez</t>
         </is>
       </c>
       <c r="C856">
@@ -11610,7 +11610,7 @@
     <row r="858">
       <c r="B858" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C858">
@@ -11623,7 +11623,7 @@
     <row r="859">
       <c r="B859" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C859">
@@ -11753,7 +11753,7 @@
     <row r="869">
       <c r="B869" t="inlineStr">
         <is>
-          <t>Mariscala de Juárez</t>
+          <t>Mariscala De Juárez</t>
         </is>
       </c>
       <c r="C869">
@@ -11766,7 +11766,7 @@
     <row r="870">
       <c r="B870" t="inlineStr">
         <is>
-          <t>Mártires de Tacubaya</t>
+          <t>Mártires De Tacubaya</t>
         </is>
       </c>
       <c r="C870">
@@ -11805,7 +11805,7 @@
     <row r="873">
       <c r="B873" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C873">
@@ -11818,7 +11818,7 @@
     <row r="874">
       <c r="B874" t="inlineStr">
         <is>
-          <t>Mixistlán de la Reforma</t>
+          <t>Mixistlán De La Reforma</t>
         </is>
       </c>
       <c r="C874">
@@ -11870,7 +11870,7 @@
     <row r="878">
       <c r="B878" t="inlineStr">
         <is>
-          <t>Nejapa de Madero</t>
+          <t>Nejapa De Madero</t>
         </is>
       </c>
       <c r="C878">
@@ -11883,7 +11883,7 @@
     <row r="879">
       <c r="B879" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C879">
@@ -11896,7 +11896,7 @@
     <row r="880">
       <c r="B880" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C880">
@@ -11909,7 +11909,7 @@
     <row r="881">
       <c r="B881" t="inlineStr">
         <is>
-          <t>Pinotepa de Don Luis</t>
+          <t>Pinotepa De Don Luis</t>
         </is>
       </c>
       <c r="C881">
@@ -11935,7 +11935,7 @@
     <row r="883">
       <c r="B883" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C883">
@@ -11948,7 +11948,7 @@
     <row r="884">
       <c r="B884" t="inlineStr">
         <is>
-          <t>Reforma de Pineda</t>
+          <t>Reforma De Pineda</t>
         </is>
       </c>
       <c r="C884">
@@ -11974,7 +11974,7 @@
     <row r="886">
       <c r="B886" t="inlineStr">
         <is>
-          <t>Rojas de Cuauhtémoc</t>
+          <t>Rojas De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C886">
@@ -12169,7 +12169,7 @@
     <row r="901">
       <c r="B901" t="inlineStr">
         <is>
-          <t>San Antonino el Alto</t>
+          <t>San Antonino El Alto</t>
         </is>
       </c>
       <c r="C901">
@@ -12260,7 +12260,7 @@
     <row r="908">
       <c r="B908" t="inlineStr">
         <is>
-          <t>San Baltazar Yatzachi el Bajo</t>
+          <t>San Baltazar Yatzachi El Bajo</t>
         </is>
       </c>
       <c r="C908">
@@ -12429,7 +12429,7 @@
     <row r="921">
       <c r="B921" t="inlineStr">
         <is>
-          <t>San Felipe Jalapa de Díaz</t>
+          <t>San Felipe Jalapa De Díaz</t>
         </is>
       </c>
       <c r="C921">
@@ -12754,7 +12754,7 @@
     <row r="946">
       <c r="B946" t="inlineStr">
         <is>
-          <t>San José del Progreso</t>
+          <t>San José Del Progreso</t>
         </is>
       </c>
       <c r="C946">
@@ -12871,7 +12871,7 @@
     <row r="955">
       <c r="B955" t="inlineStr">
         <is>
-          <t>San Juan Bautista Lo de Soto</t>
+          <t>San Juan Bautista Lo De Soto</t>
         </is>
       </c>
       <c r="C955">
@@ -12988,7 +12988,7 @@
     <row r="964">
       <c r="B964" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C964">
@@ -13664,7 +13664,7 @@
     <row r="1016">
       <c r="B1016" t="inlineStr">
         <is>
-          <t>San Miguel del Puerto</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C1016">
@@ -13690,7 +13690,7 @@
     <row r="1018">
       <c r="B1018" t="inlineStr">
         <is>
-          <t>San Miguel el Grande</t>
+          <t>San Miguel El Grande</t>
         </is>
       </c>
       <c r="C1018">
@@ -13937,7 +13937,7 @@
     <row r="1037">
       <c r="B1037" t="inlineStr">
         <is>
-          <t>San Pablo Villa de Mitla</t>
+          <t>San Pablo Villa De Mitla</t>
         </is>
       </c>
       <c r="C1037">
@@ -14015,7 +14015,7 @@
     <row r="1043">
       <c r="B1043" t="inlineStr">
         <is>
-          <t>San Pedro el Alto</t>
+          <t>San Pedro El Alto</t>
         </is>
       </c>
       <c r="C1043">
@@ -14210,7 +14210,7 @@
     <row r="1058">
       <c r="B1058" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Ayutla</t>
+          <t>San Pedro Y San Pablo Ayutla</t>
         </is>
       </c>
       <c r="C1058">
@@ -14223,7 +14223,7 @@
     <row r="1059">
       <c r="B1059" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Teposcolula</t>
+          <t>San Pedro Y San Pablo Teposcolula</t>
         </is>
       </c>
       <c r="C1059">
@@ -14405,7 +14405,7 @@
     <row r="1073">
       <c r="B1073" t="inlineStr">
         <is>
-          <t>Santa Ana del Valle</t>
+          <t>Santa Ana Del Valle</t>
         </is>
       </c>
       <c r="C1073">
@@ -14535,7 +14535,7 @@
     <row r="1083">
       <c r="B1083" t="inlineStr">
         <is>
-          <t>Santa Cruz de Bravo</t>
+          <t>Santa Cruz De Bravo</t>
         </is>
       </c>
       <c r="C1083">
@@ -14600,7 +14600,7 @@
     <row r="1088">
       <c r="B1088" t="inlineStr">
         <is>
-          <t>Santa Cruz Tacache de Mina</t>
+          <t>Santa Cruz Tacache De Mina</t>
         </is>
       </c>
       <c r="C1088">
@@ -14665,7 +14665,7 @@
     <row r="1093">
       <c r="B1093" t="inlineStr">
         <is>
-          <t>Santa Inés de Zaragoza</t>
+          <t>Santa Inés De Zaragoza</t>
         </is>
       </c>
       <c r="C1093">
@@ -14678,7 +14678,7 @@
     <row r="1094">
       <c r="B1094" t="inlineStr">
         <is>
-          <t>Santa Inés del Monte</t>
+          <t>Santa Inés Del Monte</t>
         </is>
       </c>
       <c r="C1094">
@@ -14704,7 +14704,7 @@
     <row r="1096">
       <c r="B1096" t="inlineStr">
         <is>
-          <t>Santa Lucía del Camino</t>
+          <t>Santa Lucía Del Camino</t>
         </is>
       </c>
       <c r="C1096">
@@ -14834,7 +14834,7 @@
     <row r="1106">
       <c r="B1106" t="inlineStr">
         <is>
-          <t>Santa María del Rosario</t>
+          <t>Santa María Del Rosario</t>
         </is>
       </c>
       <c r="C1106">
@@ -14847,7 +14847,7 @@
     <row r="1107">
       <c r="B1107" t="inlineStr">
         <is>
-          <t>Santa María del Tule</t>
+          <t>Santa María Del Tule</t>
         </is>
       </c>
       <c r="C1107">
@@ -14938,7 +14938,7 @@
     <row r="1114">
       <c r="B1114" t="inlineStr">
         <is>
-          <t>Santa María Jalapa del Marqués</t>
+          <t>Santa María Jalapa Del Marqués</t>
         </is>
       </c>
       <c r="C1114">
@@ -15315,7 +15315,7 @@
     <row r="1143">
       <c r="B1143" t="inlineStr">
         <is>
-          <t>Santiago del Río</t>
+          <t>Santiago Del Río</t>
         </is>
       </c>
       <c r="C1143">
@@ -15731,7 +15731,7 @@
     <row r="1175">
       <c r="B1175" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C1175">
@@ -15939,7 +15939,7 @@
     <row r="1191">
       <c r="B1191" t="inlineStr">
         <is>
-          <t>Sitio de Xitlapehua</t>
+          <t>Sitio De Xitlapehua</t>
         </is>
       </c>
       <c r="C1191">
@@ -15965,7 +15965,7 @@
     <row r="1193">
       <c r="B1193" t="inlineStr">
         <is>
-          <t>Tamazulápam del Espíritu Santo</t>
+          <t>Tamazulápam Del Espíritu Santo</t>
         </is>
       </c>
       <c r="C1193">
@@ -15978,7 +15978,7 @@
     <row r="1194">
       <c r="B1194" t="inlineStr">
         <is>
-          <t>Tanetze de Zaragoza</t>
+          <t>Tanetze De Zaragoza</t>
         </is>
       </c>
       <c r="C1194">
@@ -16004,7 +16004,7 @@
     <row r="1196">
       <c r="B1196" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C1196">
@@ -16017,7 +16017,7 @@
     <row r="1197">
       <c r="B1197" t="inlineStr">
         <is>
-          <t>Teococuilco de Marcos Pérez</t>
+          <t>Teococuilco De Marcos Pérez</t>
         </is>
       </c>
       <c r="C1197">
@@ -16030,7 +16030,7 @@
     <row r="1198">
       <c r="B1198" t="inlineStr">
         <is>
-          <t>Teotitlán de Flores Magón</t>
+          <t>Teotitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C1198">
@@ -16043,7 +16043,7 @@
     <row r="1199">
       <c r="B1199" t="inlineStr">
         <is>
-          <t>Teotitlán del Valle</t>
+          <t>Teotitlán Del Valle</t>
         </is>
       </c>
       <c r="C1199">
@@ -16082,7 +16082,7 @@
     <row r="1202">
       <c r="B1202" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C1202">
@@ -16108,7 +16108,7 @@
     <row r="1204">
       <c r="B1204" t="inlineStr">
         <is>
-          <t>Tlalixtac de Cabrera</t>
+          <t>Tlalixtac De Cabrera</t>
         </is>
       </c>
       <c r="C1204">
@@ -16121,7 +16121,7 @@
     <row r="1205">
       <c r="B1205" t="inlineStr">
         <is>
-          <t>Totontepec Villa de Morelos</t>
+          <t>Totontepec Villa De Morelos</t>
         </is>
       </c>
       <c r="C1205">
@@ -16160,7 +16160,7 @@
     <row r="1208">
       <c r="B1208" t="inlineStr">
         <is>
-          <t>Villa de Chilapa de Díaz</t>
+          <t>Villa De Chilapa De Díaz</t>
         </is>
       </c>
       <c r="C1208">
@@ -16173,7 +16173,7 @@
     <row r="1209">
       <c r="B1209" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C1209">
@@ -16186,7 +16186,7 @@
     <row r="1210">
       <c r="B1210" t="inlineStr">
         <is>
-          <t>Villa de Tamazulápam del Progreso</t>
+          <t>Villa De Tamazulápam Del Progreso</t>
         </is>
       </c>
       <c r="C1210">
@@ -16199,7 +16199,7 @@
     <row r="1211">
       <c r="B1211" t="inlineStr">
         <is>
-          <t>Villa de Tututepec de Melchor Ocampo</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C1211">
@@ -16212,7 +16212,7 @@
     <row r="1212">
       <c r="B1212" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C1212">
@@ -16251,7 +16251,7 @@
     <row r="1215">
       <c r="B1215" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C1215">
@@ -16264,7 +16264,7 @@
     <row r="1216">
       <c r="B1216" t="inlineStr">
         <is>
-          <t>Villa Talea de Castro</t>
+          <t>Villa Talea De Castro</t>
         </is>
       </c>
       <c r="C1216">
@@ -16342,7 +16342,7 @@
     <row r="1222">
       <c r="B1222" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C1222">
@@ -16406,7 +16406,7 @@
         <v>39</v>
       </c>
       <c r="D1226">
-        <v>0.0009617755856966707</v>
+        <v>0.0009617755856966709</v>
       </c>
     </row>
     <row r="1227">
@@ -16562,7 +16562,7 @@
         <v>39</v>
       </c>
       <c r="D1238">
-        <v>0.0009617755856966707</v>
+        <v>0.0009617755856966709</v>
       </c>
     </row>
     <row r="1239">
@@ -16620,7 +16620,7 @@
     <row r="1243">
       <c r="B1243" t="inlineStr">
         <is>
-          <t>Ayotoxco de Guerrero</t>
+          <t>Ayotoxco De Guerrero</t>
         </is>
       </c>
       <c r="C1243">
@@ -16659,7 +16659,7 @@
     <row r="1246">
       <c r="B1246" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C1246">
@@ -16789,7 +16789,7 @@
     <row r="1256">
       <c r="B1256" t="inlineStr">
         <is>
-          <t>Chila de la Sal</t>
+          <t>Chila De La Sal</t>
         </is>
       </c>
       <c r="C1256">
@@ -16906,7 +16906,7 @@
     <row r="1265">
       <c r="B1265" t="inlineStr">
         <is>
-          <t>Cuapiaxtla de Madero</t>
+          <t>Cuapiaxtla De Madero</t>
         </is>
       </c>
       <c r="C1265">
@@ -16945,7 +16945,7 @@
     <row r="1268">
       <c r="B1268" t="inlineStr">
         <is>
-          <t>Cuayuca de Andrade</t>
+          <t>Cuayuca De Andrade</t>
         </is>
       </c>
       <c r="C1268">
@@ -17114,7 +17114,7 @@
     <row r="1281">
       <c r="B1281" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C1281">
@@ -17127,7 +17127,7 @@
     <row r="1282">
       <c r="B1282" t="inlineStr">
         <is>
-          <t>Huehuetlán el Grande</t>
+          <t>Huehuetlán El Grande</t>
         </is>
       </c>
       <c r="C1282">
@@ -17166,7 +17166,7 @@
     <row r="1285">
       <c r="B1285" t="inlineStr">
         <is>
-          <t>Huitzilan de Serdán</t>
+          <t>Huitzilan De Serdán</t>
         </is>
       </c>
       <c r="C1285">
@@ -17192,7 +17192,7 @@
     <row r="1287">
       <c r="B1287" t="inlineStr">
         <is>
-          <t>Ixcamilpa de Guerrero</t>
+          <t>Ixcamilpa De Guerrero</t>
         </is>
       </c>
       <c r="C1287">
@@ -17231,7 +17231,7 @@
     <row r="1290">
       <c r="B1290" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C1290">
@@ -17335,7 +17335,7 @@
     <row r="1298">
       <c r="B1298" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C1298">
@@ -17465,7 +17465,7 @@
     <row r="1308">
       <c r="B1308" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C1308">
@@ -17582,7 +17582,7 @@
     <row r="1317">
       <c r="B1317" t="inlineStr">
         <is>
-          <t>San Diego la Mesa Tochimiltzingo</t>
+          <t>San Diego La Mesa Tochimiltzingo</t>
         </is>
       </c>
       <c r="C1317">
@@ -17725,7 +17725,7 @@
     <row r="1328">
       <c r="B1328" t="inlineStr">
         <is>
-          <t>San Nicolás de los Ranchos</t>
+          <t>San Nicolás De Los Ranchos</t>
         </is>
       </c>
       <c r="C1328">
@@ -17777,7 +17777,7 @@
     <row r="1332">
       <c r="B1332" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C1332">
@@ -17790,7 +17790,7 @@
     <row r="1333">
       <c r="B1333" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C1333">
@@ -17855,7 +17855,7 @@
     <row r="1338">
       <c r="B1338" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C1338">
@@ -17959,7 +17959,7 @@
     <row r="1346">
       <c r="B1346" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C1346">
@@ -17972,7 +17972,7 @@
     <row r="1347">
       <c r="B1347" t="inlineStr">
         <is>
-          <t>Tepatlaxco de Hidalgo</t>
+          <t>Tepatlaxco De Hidalgo</t>
         </is>
       </c>
       <c r="C1347">
@@ -18050,7 +18050,7 @@
     <row r="1353">
       <c r="B1353" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C1353">
@@ -18076,7 +18076,7 @@
     <row r="1355">
       <c r="B1355" t="inlineStr">
         <is>
-          <t>Tepeyahualco de Cuauhtémoc</t>
+          <t>Tepeyahualco De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C1355">
@@ -18089,7 +18089,7 @@
     <row r="1356">
       <c r="B1356" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C1356">
@@ -18102,7 +18102,7 @@
     <row r="1357">
       <c r="B1357" t="inlineStr">
         <is>
-          <t>Teteles de Avila Castillo</t>
+          <t>Teteles De Avila Castillo</t>
         </is>
       </c>
       <c r="C1357">
@@ -18167,7 +18167,7 @@
     <row r="1362">
       <c r="B1362" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C1362">
@@ -18362,7 +18362,7 @@
     <row r="1377">
       <c r="B1377" t="inlineStr">
         <is>
-          <t>Xayacatlán de Bravo</t>
+          <t>Xayacatlán De Bravo</t>
         </is>
       </c>
       <c r="C1377">
@@ -18588,7 +18588,7 @@
       </c>
       <c r="B1394" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C1394">
@@ -18614,7 +18614,7 @@
     <row r="1396">
       <c r="B1396" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C1396">
@@ -18692,7 +18692,7 @@
     <row r="1402">
       <c r="B1402" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C1402">
@@ -18705,7 +18705,7 @@
     <row r="1403">
       <c r="B1403" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C1403">
@@ -18725,7 +18725,7 @@
         <v>39</v>
       </c>
       <c r="D1404">
-        <v>0.0009617755856966707</v>
+        <v>0.0009617755856966709</v>
       </c>
     </row>
     <row r="1405">
@@ -18744,7 +18744,7 @@
     <row r="1406">
       <c r="B1406" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C1406">
@@ -18783,7 +18783,7 @@
     <row r="1409">
       <c r="B1409" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C1409">
@@ -18886,7 +18886,7 @@
         <v>39</v>
       </c>
       <c r="D1416">
-        <v>0.0009617755856966707</v>
+        <v>0.0009617755856966709</v>
       </c>
     </row>
     <row r="1417">
@@ -18936,7 +18936,7 @@
     <row r="1420">
       <c r="B1420" t="inlineStr">
         <is>
-          <t>Armadillo de los Infante</t>
+          <t>Armadillo De Los Infante</t>
         </is>
       </c>
       <c r="C1420">
@@ -18949,7 +18949,7 @@
     <row r="1421">
       <c r="B1421" t="inlineStr">
         <is>
-          <t>Axtla de Terrazas</t>
+          <t>Axtla De Terrazas</t>
         </is>
       </c>
       <c r="C1421">
@@ -19027,7 +19027,7 @@
     <row r="1427">
       <c r="B1427" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C1427">
@@ -19157,14 +19157,14 @@
     <row r="1437">
       <c r="B1437" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C1437">
         <v>39</v>
       </c>
       <c r="D1437">
-        <v>0.0009617755856966707</v>
+        <v>0.0009617755856966709</v>
       </c>
     </row>
     <row r="1438">
@@ -19235,7 +19235,7 @@
     <row r="1443">
       <c r="B1443" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C1443">
@@ -19300,7 +19300,7 @@
     <row r="1448">
       <c r="B1448" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C1448">
@@ -19326,7 +19326,7 @@
     <row r="1450">
       <c r="B1450" t="inlineStr">
         <is>
-          <t>Soledad de Graciano Sánchez</t>
+          <t>Soledad De Graciano Sánchez</t>
         </is>
       </c>
       <c r="C1450">
@@ -19430,7 +19430,7 @@
     <row r="1458">
       <c r="B1458" t="inlineStr">
         <is>
-          <t>Tanquián de Escobedo</t>
+          <t>Tanquián De Escobedo</t>
         </is>
       </c>
       <c r="C1458">
@@ -19482,7 +19482,7 @@
     <row r="1462">
       <c r="B1462" t="inlineStr">
         <is>
-          <t>Villa de Arista</t>
+          <t>Villa De Arista</t>
         </is>
       </c>
       <c r="C1462">
@@ -19495,7 +19495,7 @@
     <row r="1463">
       <c r="B1463" t="inlineStr">
         <is>
-          <t>Villa de Arriaga</t>
+          <t>Villa De Arriaga</t>
         </is>
       </c>
       <c r="C1463">
@@ -19508,7 +19508,7 @@
     <row r="1464">
       <c r="B1464" t="inlineStr">
         <is>
-          <t>Villa de Guadalupe</t>
+          <t>Villa De Guadalupe</t>
         </is>
       </c>
       <c r="C1464">
@@ -19521,7 +19521,7 @@
     <row r="1465">
       <c r="B1465" t="inlineStr">
         <is>
-          <t>Villa de la Paz</t>
+          <t>Villa De La Paz</t>
         </is>
       </c>
       <c r="C1465">
@@ -19534,7 +19534,7 @@
     <row r="1466">
       <c r="B1466" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C1466">
@@ -19547,7 +19547,7 @@
     <row r="1467">
       <c r="B1467" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C1467">
@@ -20012,7 +20012,7 @@
     <row r="1502">
       <c r="B1502" t="inlineStr">
         <is>
-          <t>Nacozari de García</t>
+          <t>Nacozari De García</t>
         </is>
       </c>
       <c r="C1502">
@@ -20212,7 +20212,7 @@
     <row r="1517">
       <c r="B1517" t="inlineStr">
         <is>
-          <t>Jalpa de Méndez</t>
+          <t>Jalpa De Méndez</t>
         </is>
       </c>
       <c r="C1517">
@@ -20737,7 +20737,7 @@
     <row r="1557">
       <c r="B1557" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C1557">
@@ -20924,7 +20924,7 @@
     <row r="1571">
       <c r="B1571" t="inlineStr">
         <is>
-          <t>Contla de Juan Cuamatzi</t>
+          <t>Contla De Juan Cuamatzi</t>
         </is>
       </c>
       <c r="C1571">
@@ -20963,7 +20963,7 @@
     <row r="1574">
       <c r="B1574" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C1574">
@@ -21002,7 +21002,7 @@
     <row r="1577">
       <c r="B1577" t="inlineStr">
         <is>
-          <t>Nanacamilpa de Mariano Arista</t>
+          <t>Nanacamilpa De Mariano Arista</t>
         </is>
       </c>
       <c r="C1577">
@@ -21041,7 +21041,7 @@
     <row r="1580">
       <c r="B1580" t="inlineStr">
         <is>
-          <t>Papalotla de Xicohténcatl</t>
+          <t>Papalotla De Xicohténcatl</t>
         </is>
       </c>
       <c r="C1580">
@@ -21054,7 +21054,7 @@
     <row r="1581">
       <c r="B1581" t="inlineStr">
         <is>
-          <t>San Pablo del Monte</t>
+          <t>San Pablo Del Monte</t>
         </is>
       </c>
       <c r="C1581">
@@ -21093,7 +21093,7 @@
     <row r="1584">
       <c r="B1584" t="inlineStr">
         <is>
-          <t>Tepetitla de Lardizábal</t>
+          <t>Tepetitla De Lardizábal</t>
         </is>
       </c>
       <c r="C1584">
@@ -21132,7 +21132,7 @@
     <row r="1587">
       <c r="B1587" t="inlineStr">
         <is>
-          <t>Tetla de la Solidaridad</t>
+          <t>Tetla De La Solidaridad</t>
         </is>
       </c>
       <c r="C1587">
@@ -21410,7 +21410,7 @@
     <row r="1608">
       <c r="B1608" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C1608">
@@ -21462,7 +21462,7 @@
     <row r="1612">
       <c r="B1612" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C1612">
@@ -21618,7 +21618,7 @@
     <row r="1624">
       <c r="B1624" t="inlineStr">
         <is>
-          <t>Boca del Río</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C1624">
@@ -21644,7 +21644,7 @@
     <row r="1626">
       <c r="B1626" t="inlineStr">
         <is>
-          <t>Camarón de Tejeda</t>
+          <t>Camarón De Tejeda</t>
         </is>
       </c>
       <c r="C1626">
@@ -21696,7 +21696,7 @@
     <row r="1630">
       <c r="B1630" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C1630">
@@ -21722,7 +21722,7 @@
     <row r="1632">
       <c r="B1632" t="inlineStr">
         <is>
-          <t>Cazones de Herrera</t>
+          <t>Cazones De Herrera</t>
         </is>
       </c>
       <c r="C1632">
@@ -21956,7 +21956,7 @@
     <row r="1650">
       <c r="B1650" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C1650">
@@ -21969,7 +21969,7 @@
     <row r="1651">
       <c r="B1651" t="inlineStr">
         <is>
-          <t>Cosautlán de Carvajal</t>
+          <t>Cosautlán De Carvajal</t>
         </is>
       </c>
       <c r="C1651">
@@ -22177,7 +22177,7 @@
     <row r="1667">
       <c r="B1667" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C1667">
@@ -22190,7 +22190,7 @@
     <row r="1668">
       <c r="B1668" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C1668">
@@ -22242,7 +22242,7 @@
     <row r="1672">
       <c r="B1672" t="inlineStr">
         <is>
-          <t>Ixhuacán de los Reyes</t>
+          <t>Ixhuacán De Los Reyes</t>
         </is>
       </c>
       <c r="C1672">
@@ -22255,7 +22255,7 @@
     <row r="1673">
       <c r="B1673" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C1673">
@@ -22268,7 +22268,7 @@
     <row r="1674">
       <c r="B1674" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C1674">
@@ -22281,7 +22281,7 @@
     <row r="1675">
       <c r="B1675" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Sureste</t>
+          <t>Ixhuatlán Del Sureste</t>
         </is>
       </c>
       <c r="C1675">
@@ -22424,7 +22424,7 @@
     <row r="1686">
       <c r="B1686" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C1686">
@@ -22444,7 +22444,7 @@
         <v>39</v>
       </c>
       <c r="D1687">
-        <v>0.0009617755856966707</v>
+        <v>0.0009617755856966709</v>
       </c>
     </row>
     <row r="1688">
@@ -22463,7 +22463,7 @@
     <row r="1689">
       <c r="B1689" t="inlineStr">
         <is>
-          <t>Landero y Coss</t>
+          <t>Landero Y Coss</t>
         </is>
       </c>
       <c r="C1689">
@@ -22502,7 +22502,7 @@
     <row r="1692">
       <c r="B1692" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C1692">
@@ -22554,7 +22554,7 @@
     <row r="1696">
       <c r="B1696" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C1696">
@@ -22580,7 +22580,7 @@
     <row r="1698">
       <c r="B1698" t="inlineStr">
         <is>
-          <t>Medellín de Bravo</t>
+          <t>Medellín De Bravo</t>
         </is>
       </c>
       <c r="C1698">
@@ -22632,7 +22632,7 @@
     <row r="1702">
       <c r="B1702" t="inlineStr">
         <is>
-          <t>Mixtla de Altamirano</t>
+          <t>Mixtla De Altamirano</t>
         </is>
       </c>
       <c r="C1702">
@@ -22658,7 +22658,7 @@
     <row r="1704">
       <c r="B1704" t="inlineStr">
         <is>
-          <t>Nanchital de Lázaro Cárdenas del Río</t>
+          <t>Nanchital De Lázaro Cárdenas Del Río</t>
         </is>
       </c>
       <c r="C1704">
@@ -22762,7 +22762,7 @@
     <row r="1712">
       <c r="B1712" t="inlineStr">
         <is>
-          <t>Ozuluama de Mascareñas</t>
+          <t>Ozuluama De Mascareñas</t>
         </is>
       </c>
       <c r="C1712">
@@ -22814,7 +22814,7 @@
     <row r="1716">
       <c r="B1716" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C1716">
@@ -22827,7 +22827,7 @@
     <row r="1717">
       <c r="B1717" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C1717">
@@ -22879,14 +22879,14 @@
     <row r="1721">
       <c r="B1721" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C1721">
         <v>39</v>
       </c>
       <c r="D1721">
-        <v>0.0009617755856966707</v>
+        <v>0.0009617755856966709</v>
       </c>
     </row>
     <row r="1722">
@@ -22983,7 +22983,7 @@
     <row r="1729">
       <c r="B1729" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C1729">
@@ -23035,7 +23035,7 @@
     <row r="1733">
       <c r="B1733" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C1733">
@@ -23360,7 +23360,7 @@
     <row r="1758">
       <c r="B1758" t="inlineStr">
         <is>
-          <t>Tlacotepec de Mejía</t>
+          <t>Tlacotepec De Mejía</t>
         </is>
       </c>
       <c r="C1758">
@@ -23516,7 +23516,7 @@
     <row r="1770">
       <c r="B1770" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C1770">
@@ -23659,7 +23659,7 @@
     <row r="1781">
       <c r="B1781" t="inlineStr">
         <is>
-          <t>Zozocolco de Hidalgo</t>
+          <t>Zozocolco De Hidalgo</t>
         </is>
       </c>
       <c r="C1781">
@@ -23890,7 +23890,7 @@
     <row r="1798">
       <c r="B1798" t="inlineStr">
         <is>
-          <t>Cañitas de Felipe Pescador</t>
+          <t>Cañitas De Felipe Pescador</t>
         </is>
       </c>
       <c r="C1798">
@@ -23916,7 +23916,7 @@
     <row r="1800">
       <c r="B1800" t="inlineStr">
         <is>
-          <t>Concepción del Oro</t>
+          <t>Concepción Del Oro</t>
         </is>
       </c>
       <c r="C1800">
@@ -24059,7 +24059,7 @@
     <row r="1811">
       <c r="B1811" t="inlineStr">
         <is>
-          <t>Jiménez del Teul</t>
+          <t>Jiménez Del Teul</t>
         </is>
       </c>
       <c r="C1811">
@@ -24150,7 +24150,7 @@
     <row r="1818">
       <c r="B1818" t="inlineStr">
         <is>
-          <t>Mezquital del Oro</t>
+          <t>Mezquital Del Oro</t>
         </is>
       </c>
       <c r="C1818">
@@ -24202,7 +24202,7 @@
     <row r="1822">
       <c r="B1822" t="inlineStr">
         <is>
-          <t>Moyahua de Estrada</t>
+          <t>Moyahua De Estrada</t>
         </is>
       </c>
       <c r="C1822">
@@ -24215,7 +24215,7 @@
     <row r="1823">
       <c r="B1823" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C1823">
@@ -24228,7 +24228,7 @@
     <row r="1824">
       <c r="B1824" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C1824">
@@ -24371,7 +24371,7 @@
     <row r="1835">
       <c r="B1835" t="inlineStr">
         <is>
-          <t>Teúl de González Ortega</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C1835">
@@ -24384,7 +24384,7 @@
     <row r="1836">
       <c r="B1836" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C1836">
@@ -24423,7 +24423,7 @@
     <row r="1839">
       <c r="B1839" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C1839">
@@ -24522,41 +24522,6 @@
       </c>
       <c r="D1846">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1848">
-      <c r="A1848" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 1,114,005</t>
-        </is>
-      </c>
-    </row>
-    <row r="1849">
-      <c r="A1849" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1850">
-      <c r="A1850" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1851">
-      <c r="A1851" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1852">
-      <c r="A1852" t="inlineStr">
-        <is>
-          <t>Junio de 2016</t>
-        </is>
       </c>
     </row>
   </sheetData>
